--- a/Python/lambor_Inputbox_XSZFCX.xlsx
+++ b/Python/lambor_Inputbox_XSZFCX.xlsx
@@ -41,23 +41,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[2]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[6]/div/input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[6]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[7]/div/input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[7]/a</t>
+    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[2]/a[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[6]/a[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[7]/a[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +389,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -420,20 +420,20 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
